--- a/similarities/split_global/harmonic_similarity_timestamps_45.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_45.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:dim7', 'C:min7', 'F:7'], ['C:min7', 'F:7', 'Bb:maj6'], ['F:7', 'Bb', 'Bb:7']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:dim7', 'Eb:min7', 'Ab:7'], ['Eb:min7', 'Ab:7', 'Db:maj6'], ['Ab:7', 'Db', 'Db:7']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.320000', '0:00:25.020000'), ('0:00:22.850000', '0:00:26.110000'), ('0:00:09.770000', '0:00:15.240000')]</t>
+          <t>('0:04:21.828000', '0:04:33.028000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:15.110000'), ('0:00:35.450000', '0:00:37.190000'), ('0:00:56.020000', '0:00:59.320000')]</t>
+          <t>('0:00:14.450219', '0:00:23.088042')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.85', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=9.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=35.45', 'https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=56.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_144</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'E:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'E:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:45.850000', '0:00:51.144000')]</t>
+          <t>('0:01:12.520000', '0:01:23.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:28.950045', '0:00:35.985691')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=45.85']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-95#t=28.950045']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:56.480000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:21.560000')]</t>
+          <t>('0:01:21.100000', '0:01:27.580000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>jaah_10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['Bb:7', 'Eb:maj6', 'Eb:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['Ab:7', 'Db:maj6', 'Db:7/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.851927', '0:00:16.810929'), ('0:00:18.783807', '0:00:24.845034')]</t>
+          <t>('0:01:23.490000', '0:01:31.690000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:03:47.620000', '0:03:55.060000'), ('0:00:54.260000', '0:01:01.020000')]</t>
+          <t>('0:00:36.030000', '0:00:37.750000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=12.851927', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=83.49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=227.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=36.03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:20.080000', '0:00:23.280000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:53.250000', '0:00:54.920000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=20.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=53.25']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:00.780000', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:33.600000')]</t>
+          <t>('0:01:07.100430', '0:01:15.018435')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.500000', '0:00:06.820000')]</t>
+          <t>('0:00:00.600000', '0:00:05.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=1.5']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_63</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab:7', 'Db']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:45.522000', '0:00:50.551000')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:00.080000', '0:01:07.990000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=45.522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=60.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
+          <t>('0:00:00.320000', '0:00:10.960000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:08.740000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'D'], ['D', 'G', 'D', 'A']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E'], ['E', 'A', 'E', 'B']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.605000', '0:00:14.292000'), ('0:00:04.063000', '0:00:08.399000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:17.942016', '0:00:25.860021'), ('0:00:06.726778', '0:00:14.737663')]</t>
+          <t>('0:00:06.740000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=7.605', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=17.942016', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=6.74</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:17.942016', '0:00:24.304284')]</t>
+          <t>('0:00:01.540000', '0:00:04.240000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:00:45.480000', '0:00:56.600000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=17.942016']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=45.48</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G'], ['A:min7', 'D:7', 'G']]</t>
+          <t>['E:7', 'A:maj6', 'E:7', 'A:maj6']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F'], ['G:min7', 'C:7', 'F']]</t>
+          <t>['Eb:7', 'Ab:maj6', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:02.900000', '0:00:11.630000'), ('0:00:14.530000', '0:00:17.430000')]</t>
+          <t>('0:00:21.240000', '0:00:25')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:09.910000', '0:00:14'), ('0:00:20.730000', '0:00:24.830000')]</t>
+          <t>('0:00:23.230000', '0:00:27.910000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9', 'https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=14.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=21.24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91', 'https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=23.23</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:18.300000')]</t>
+          <t>('0:00:04.155032', '0:00:07.525011')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
